--- a/Source/Excel/Test/Member100.xlsx
+++ b/Source/Excel/Test/Member100.xlsx
@@ -741,7 +741,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="K40" s="1">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="1">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="1">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="L44" s="1">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="K47" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="L48" s="1">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="1">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="1">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="L50" s="1">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>65</v>
       </c>
       <c r="B51" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>66</v>
       </c>
       <c r="B52" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>67</v>
       </c>
       <c r="B53" s="1">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="1">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="1">
-        <v>52</v>
+        <v>-2</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="1">
-        <v>52</v>
+        <v>-2</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>69</v>
       </c>
       <c r="B55" s="1">
-        <v>53</v>
+        <v>-3</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="K55" s="1">
-        <v>53</v>
+        <v>-3</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>70</v>
       </c>
       <c r="B56" s="1">
-        <v>54</v>
+        <v>-4</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="1">
-        <v>54</v>
+        <v>-4</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>71</v>
       </c>
       <c r="B57" s="1">
-        <v>55</v>
+        <v>-5</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="1">
-        <v>55</v>
+        <v>-5</v>
       </c>
       <c r="L57" s="1">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>72</v>
       </c>
       <c r="B58" s="1">
-        <v>56</v>
+        <v>-6</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="1">
-        <v>56</v>
+        <v>-6</v>
       </c>
       <c r="L58" s="1">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>73</v>
       </c>
       <c r="B59" s="1">
-        <v>57</v>
+        <v>-7</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="1">
-        <v>57</v>
+        <v>-7</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="1">
-        <v>58</v>
+        <v>-8</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="1">
-        <v>58</v>
+        <v>-8</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>75</v>
       </c>
       <c r="B61" s="1">
-        <v>59</v>
+        <v>-9</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="1">
-        <v>59</v>
+        <v>-9</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>76</v>
       </c>
       <c r="B62" s="1">
-        <v>60</v>
+        <v>-10</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="K62" s="1">
-        <v>60</v>
+        <v>-10</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>77</v>
       </c>
       <c r="B63" s="1">
-        <v>61</v>
+        <v>-11</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="1">
-        <v>61</v>
+        <v>-11</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>78</v>
       </c>
       <c r="B64" s="1">
-        <v>62</v>
+        <v>-12</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="K64" s="1">
-        <v>62</v>
+        <v>-12</v>
       </c>
       <c r="L64" s="1">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>79</v>
       </c>
       <c r="B65" s="1">
-        <v>63</v>
+        <v>-13</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="1">
-        <v>63</v>
+        <v>-13</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>80</v>
       </c>
       <c r="B66" s="1">
-        <v>64</v>
+        <v>-14</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="1">
-        <v>64</v>
+        <v>-14</v>
       </c>
       <c r="L66" s="1">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>81</v>
       </c>
       <c r="B67" s="1">
-        <v>65</v>
+        <v>-15</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="K67" s="1">
-        <v>65</v>
+        <v>-15</v>
       </c>
       <c r="L67" s="1">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="1">
-        <v>66</v>
+        <v>-16</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="K68" s="1">
-        <v>66</v>
+        <v>-16</v>
       </c>
       <c r="L68" s="1">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>83</v>
       </c>
       <c r="B69" s="1">
-        <v>67</v>
+        <v>-17</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="K69" s="1">
-        <v>67</v>
+        <v>-17</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>84</v>
       </c>
       <c r="B70" s="1">
-        <v>68</v>
+        <v>-18</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="K70" s="1">
-        <v>68</v>
+        <v>-18</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="1">
-        <v>69</v>
+        <v>-19</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="K71" s="1">
-        <v>69</v>
+        <v>-19</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>86</v>
       </c>
       <c r="B72" s="1">
-        <v>70</v>
+        <v>-20</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="K72" s="1">
-        <v>70</v>
+        <v>-20</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>87</v>
       </c>
       <c r="B73" s="1">
-        <v>71</v>
+        <v>-21</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="K73" s="1">
-        <v>71</v>
+        <v>-21</v>
       </c>
       <c r="L73" s="1">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>88</v>
       </c>
       <c r="B74" s="1">
-        <v>72</v>
+        <v>-22</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="K74" s="1">
-        <v>72</v>
+        <v>-22</v>
       </c>
       <c r="L74" s="1">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>89</v>
       </c>
       <c r="B75" s="1">
-        <v>73</v>
+        <v>-23</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="K75" s="1">
-        <v>73</v>
+        <v>-23</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>90</v>
       </c>
       <c r="B76" s="1">
-        <v>74</v>
+        <v>-24</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="K76" s="1">
-        <v>74</v>
+        <v>-24</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>91</v>
       </c>
       <c r="B77" s="1">
-        <v>75</v>
+        <v>-25</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="K77" s="1">
-        <v>75</v>
+        <v>-25</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>92</v>
       </c>
       <c r="B78" s="1">
-        <v>76</v>
+        <v>-26</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="1">
-        <v>76</v>
+        <v>-26</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>93</v>
       </c>
       <c r="B79" s="1">
-        <v>77</v>
+        <v>-27</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="K79" s="1">
-        <v>77</v>
+        <v>-27</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>94</v>
       </c>
       <c r="B80" s="1">
-        <v>78</v>
+        <v>-28</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="1">
-        <v>78</v>
+        <v>-28</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="B81" s="1">
-        <v>79</v>
+        <v>-29</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="K81" s="1">
-        <v>79</v>
+        <v>-29</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>96</v>
       </c>
       <c r="B82" s="1">
-        <v>80</v>
+        <v>-30</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="K82" s="1">
-        <v>80</v>
+        <v>-30</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>97</v>
       </c>
       <c r="B83" s="1">
-        <v>81</v>
+        <v>-31</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="K83" s="1">
-        <v>81</v>
+        <v>-31</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>98</v>
       </c>
       <c r="B84" s="1">
-        <v>82</v>
+        <v>-32</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="K84" s="1">
-        <v>82</v>
+        <v>-32</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="1">
-        <v>83</v>
+        <v>-33</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="K85" s="1">
-        <v>83</v>
+        <v>-33</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>100</v>
       </c>
       <c r="B86" s="1">
-        <v>84</v>
+        <v>-34</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="K86" s="1">
-        <v>84</v>
+        <v>-34</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>101</v>
       </c>
       <c r="B87" s="1">
-        <v>85</v>
+        <v>-35</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="K87" s="1">
-        <v>85</v>
+        <v>-35</v>
       </c>
       <c r="L87" s="1">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>102</v>
       </c>
       <c r="B88" s="1">
-        <v>86</v>
+        <v>-36</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="K88" s="1">
-        <v>86</v>
+        <v>-36</v>
       </c>
       <c r="L88" s="1">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>103</v>
       </c>
       <c r="B89" s="1">
-        <v>87</v>
+        <v>-37</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="K89" s="1">
-        <v>87</v>
+        <v>-37</v>
       </c>
       <c r="L89" s="1">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>104</v>
       </c>
       <c r="B90" s="1">
-        <v>88</v>
+        <v>-38</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="K90" s="1">
-        <v>88</v>
+        <v>-38</v>
       </c>
       <c r="L90" s="1">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>105</v>
       </c>
       <c r="B91" s="1">
-        <v>89</v>
+        <v>-39</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="K91" s="1">
-        <v>89</v>
+        <v>-39</v>
       </c>
       <c r="L91" s="1">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>106</v>
       </c>
       <c r="B92" s="1">
-        <v>90</v>
+        <v>-40</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="K92" s="1">
-        <v>90</v>
+        <v>-40</v>
       </c>
       <c r="L92" s="1">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>107</v>
       </c>
       <c r="B93" s="1">
-        <v>91</v>
+        <v>-41</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="1">
-        <v>91</v>
+        <v>-41</v>
       </c>
       <c r="L93" s="1">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>108</v>
       </c>
       <c r="B94" s="1">
-        <v>92</v>
+        <v>-42</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="1">
-        <v>92</v>
+        <v>-42</v>
       </c>
       <c r="L94" s="1">
         <v>0</v>
@@ -4617,7 +4617,7 @@
         <v>109</v>
       </c>
       <c r="B95" s="1">
-        <v>93</v>
+        <v>-43</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="1">
-        <v>93</v>
+        <v>-43</v>
       </c>
       <c r="L95" s="1">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>110</v>
       </c>
       <c r="B96" s="1">
-        <v>94</v>
+        <v>-44</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="K96" s="1">
-        <v>94</v>
+        <v>-44</v>
       </c>
       <c r="L96" s="1">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>111</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>-45</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="K97" s="1">
-        <v>95</v>
+        <v>-45</v>
       </c>
       <c r="L97" s="1">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>112</v>
       </c>
       <c r="B98" s="1">
-        <v>96</v>
+        <v>-46</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -4767,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="1">
-        <v>96</v>
+        <v>-46</v>
       </c>
       <c r="L98" s="1">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>113</v>
       </c>
       <c r="B99" s="1">
-        <v>97</v>
+        <v>-47</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="1">
-        <v>97</v>
+        <v>-47</v>
       </c>
       <c r="L99" s="1">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>114</v>
       </c>
       <c r="B100" s="1">
-        <v>98</v>
+        <v>-48</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="K100" s="1">
-        <v>98</v>
+        <v>-48</v>
       </c>
       <c r="L100" s="1">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>115</v>
       </c>
       <c r="B101" s="1">
-        <v>99</v>
+        <v>-49</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="K101" s="1">
-        <v>99</v>
+        <v>-49</v>
       </c>
       <c r="L101" s="1">
         <v>0</v>
